--- a/output_dataset_1.xlsx
+++ b/output_dataset_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gupta\Python jypter notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ED3683-0179-4BAE-9C03-CA90B24AF15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639CEA8B-3D2A-4838-8F1A-DEE7D1B1CE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2763,11 +2763,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3075,12 +3076,18 @@
   <dimension ref="A1:ET126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:150" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
